--- a/36.xlsx
+++ b/36.xlsx
@@ -1,62 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="600" windowWidth="24670" windowHeight="9840"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>n_estimators</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>scoring</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,189 +420,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="85.6328125" customWidth="1"/>
-    <col min="3" max="3" width="119.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>447</v>
-      </c>
-      <c r="B2">
-        <v>0.08</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.07000263834819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>447</v>
-      </c>
-      <c r="B3">
-        <v>0.18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.05176009860103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>447</v>
-      </c>
-      <c r="B4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.1179291692669699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>457</v>
-      </c>
-      <c r="B5">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0701514839502899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>457</v>
-      </c>
-      <c r="B6">
-        <v>0.18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0514347331312599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>457</v>
-      </c>
-      <c r="B7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1179291754292999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>467</v>
-      </c>
-      <c r="B8">
-        <v>0.08</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0700436142935199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>467</v>
-      </c>
-      <c r="B9">
-        <v>0.18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0519134874167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>467</v>
-      </c>
-      <c r="B10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.1179291806098901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>scoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>567</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0215764554345386</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>567</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.0131523913750073</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>567</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.018605136645674</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>577</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.02122946797237</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>577</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0134506492416004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>577</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.0194159918206236</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>587</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0206784223598653</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>587</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0137015930560274</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>587</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.0198713173615628</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>